--- a/CQ861標-門樘烤漆顔色區分.xlsx
+++ b/CQ861標-門樘烤漆顔色區分.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="535">
   <si>
     <t>B101</t>
   </si>
@@ -2629,12 +2629,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2648,6 +2642,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="125">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3080,7 +3080,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="I1" zoomScale="172" zoomScaleNormal="100" zoomScaleSheetLayoutView="172" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P1:P1048576"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3094,7 +3094,7 @@
     <col min="7" max="7" width="34.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="9" style="72"/>
+    <col min="13" max="13" width="9" style="70"/>
     <col min="14" max="15" width="10.75" style="4" customWidth="1"/>
     <col min="16" max="16" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.875" style="4" bestFit="1" customWidth="1"/>
@@ -3102,25 +3102,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
@@ -3135,7 +3135,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="68"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -3156,32 +3156,32 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="69"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:19" ht="18.75">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="15" t="s">
@@ -3200,7 +3200,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="68"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -3221,7 +3221,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -3264,7 +3264,7 @@
       <c r="L7" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="55" t="s">
         <v>378</v>
       </c>
@@ -12198,7 +12198,7 @@
       <c r="L185" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M185" s="71"/>
+      <c r="M185" s="69"/>
       <c r="N185" s="37" t="s">
         <v>25</v>
       </c>
@@ -13603,10 +13603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G206"/>
+  <dimension ref="B1:H206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13616,9 +13616,10 @@
     <col min="4" max="5" width="9" style="4"/>
     <col min="6" max="6" width="10.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="58" t="s">
         <v>372</v>
       </c>
@@ -13637,8 +13638,11 @@
       <c r="G1" s="56" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="2" spans="2:7">
+      <c r="H1" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
@@ -13657,8 +13661,9 @@
       <c r="G2" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
@@ -13677,8 +13682,9 @@
       <c r="G3" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="20" t="s">
         <v>381</v>
       </c>
@@ -13697,8 +13703,11 @@
       <c r="G4" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="H4" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
@@ -13717,8 +13726,9 @@
       <c r="G5" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
@@ -13737,8 +13747,9 @@
       <c r="G6" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="20" t="s">
         <v>16</v>
       </c>
@@ -13757,8 +13768,9 @@
       <c r="G7" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
@@ -13777,8 +13789,9 @@
       <c r="G8" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
@@ -13797,8 +13810,9 @@
       <c r="G9" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="20" t="s">
         <v>23</v>
       </c>
@@ -13817,8 +13831,9 @@
       <c r="G10" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="20" t="s">
         <v>26</v>
       </c>
@@ -13837,8 +13852,9 @@
       <c r="G11" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
@@ -13857,8 +13873,9 @@
       <c r="G12" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="20" t="s">
         <v>382</v>
       </c>
@@ -13877,8 +13894,11 @@
       <c r="G13" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="20" t="s">
         <v>383</v>
       </c>
@@ -13897,8 +13917,11 @@
       <c r="G14" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="20" t="s">
         <v>31</v>
       </c>
@@ -13917,8 +13940,9 @@
       <c r="G15" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
@@ -13937,8 +13961,9 @@
       <c r="G16" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="20" t="s">
         <v>35</v>
       </c>
@@ -13957,8 +13982,11 @@
       <c r="G17" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="20" t="s">
         <v>40</v>
       </c>
@@ -13977,8 +14005,11 @@
       <c r="G18" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="20" t="s">
         <v>43</v>
       </c>
@@ -13997,8 +14028,9 @@
       <c r="G19" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="20" t="s">
         <v>45</v>
       </c>
@@ -14017,8 +14049,11 @@
       <c r="G20" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
@@ -14037,8 +14072,11 @@
       <c r="G21" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="20" t="s">
         <v>51</v>
       </c>
@@ -14057,8 +14095,11 @@
       <c r="G22" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="20" t="s">
         <v>53</v>
       </c>
@@ -14077,8 +14118,9 @@
       <c r="G23" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="20" t="s">
         <v>55</v>
       </c>
@@ -14097,8 +14139,11 @@
       <c r="G24" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="H24" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="20" t="s">
         <v>57</v>
       </c>
@@ -14117,8 +14162,11 @@
       <c r="G25" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="H25" s="22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="20" t="s">
         <v>61</v>
       </c>
@@ -14137,8 +14185,11 @@
       <c r="G26" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="20" t="s">
         <v>63</v>
       </c>
@@ -14157,8 +14208,11 @@
       <c r="G27" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="H27" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="20" t="s">
         <v>65</v>
       </c>
@@ -14177,8 +14231,11 @@
       <c r="G28" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="H28" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="20" t="s">
         <v>68</v>
       </c>
@@ -14197,8 +14254,11 @@
       <c r="G29" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29" s="22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="20" t="s">
         <v>70</v>
       </c>
@@ -14217,8 +14277,11 @@
       <c r="G30" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="H30" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="20" t="s">
         <v>71</v>
       </c>
@@ -14237,8 +14300,11 @@
       <c r="G31" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="H31" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="20" t="s">
         <v>72</v>
       </c>
@@ -14257,8 +14323,11 @@
       <c r="G32" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="20" t="s">
         <v>74</v>
       </c>
@@ -14277,8 +14346,9 @@
       <c r="G33" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="20" t="s">
         <v>76</v>
       </c>
@@ -14297,8 +14367,11 @@
       <c r="G34" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="H34" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="20" t="s">
         <v>79</v>
       </c>
@@ -14317,8 +14390,11 @@
       <c r="G35" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="H35" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="20" t="s">
         <v>85</v>
       </c>
@@ -14337,8 +14413,11 @@
       <c r="G36" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="H36" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="20" t="s">
         <v>87</v>
       </c>
@@ -14357,8 +14436,9 @@
       <c r="G37" s="19">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" s="20" t="s">
         <v>90</v>
       </c>
@@ -14377,8 +14457,9 @@
       <c r="G38" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="20" t="s">
         <v>92</v>
       </c>
@@ -14397,8 +14478,9 @@
       <c r="G39" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="20" t="s">
         <v>94</v>
       </c>
@@ -14417,8 +14499,9 @@
       <c r="G40" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="20" t="s">
         <v>96</v>
       </c>
@@ -14437,8 +14520,9 @@
       <c r="G41" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="20" t="s">
         <v>98</v>
       </c>
@@ -14457,8 +14541,9 @@
       <c r="G42" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="20" t="s">
         <v>100</v>
       </c>
@@ -14477,8 +14562,9 @@
       <c r="G43" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="2:7">
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="20" t="s">
         <v>102</v>
       </c>
@@ -14497,8 +14583,9 @@
       <c r="G44" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="2:7">
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="20" t="s">
         <v>104</v>
       </c>
@@ -14517,8 +14604,9 @@
       <c r="G45" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="20" t="s">
         <v>105</v>
       </c>
@@ -14537,8 +14625,9 @@
       <c r="G46" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="2:7">
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" s="20" t="s">
         <v>107</v>
       </c>
@@ -14557,8 +14646,9 @@
       <c r="G47" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="20" t="s">
         <v>109</v>
       </c>
@@ -14577,8 +14667,9 @@
       <c r="G48" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="H48" s="22"/>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="20" t="s">
         <v>111</v>
       </c>
@@ -14597,8 +14688,9 @@
       <c r="G49" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="H49" s="22"/>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="20" t="s">
         <v>113</v>
       </c>
@@ -14617,8 +14709,9 @@
       <c r="G50" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="20" t="s">
         <v>115</v>
       </c>
@@ -14637,8 +14730,11 @@
       <c r="G51" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="H51" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="20" t="s">
         <v>118</v>
       </c>
@@ -14657,8 +14753,9 @@
       <c r="G52" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="2:7">
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="20" t="s">
         <v>121</v>
       </c>
@@ -14677,8 +14774,11 @@
       <c r="G53" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="H53" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="20" t="s">
         <v>384</v>
       </c>
@@ -14697,8 +14797,11 @@
       <c r="G54" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="2:7">
+      <c r="H54" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="20" t="s">
         <v>385</v>
       </c>
@@ -14717,8 +14820,11 @@
       <c r="G55" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="56" spans="2:7">
+      <c r="H55" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="20" t="s">
         <v>123</v>
       </c>
@@ -14737,8 +14843,9 @@
       <c r="G56" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="2:7">
+      <c r="H56" s="22"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="20" t="s">
         <v>124</v>
       </c>
@@ -14757,8 +14864,9 @@
       <c r="G57" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="2:7">
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="20" t="s">
         <v>126</v>
       </c>
@@ -14777,8 +14885,11 @@
       <c r="G58" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="H58" s="22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="20" t="s">
         <v>130</v>
       </c>
@@ -14797,8 +14908,11 @@
       <c r="G59" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="60" spans="2:7">
+      <c r="H59" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="20" t="s">
         <v>132</v>
       </c>
@@ -14817,8 +14931,11 @@
       <c r="G60" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="2:7">
+      <c r="H60" s="22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="20" t="s">
         <v>386</v>
       </c>
@@ -14837,8 +14954,11 @@
       <c r="G61" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="2:7">
+      <c r="H61" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" s="20" t="s">
         <v>134</v>
       </c>
@@ -14857,8 +14977,11 @@
       <c r="G62" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="2:7">
+      <c r="H62" s="22" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" s="20" t="s">
         <v>135</v>
       </c>
@@ -14877,8 +15000,11 @@
       <c r="G63" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:7">
+      <c r="H63" s="22" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="20" t="s">
         <v>136</v>
       </c>
@@ -14897,8 +15023,11 @@
       <c r="G64" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="2:7">
+      <c r="H64" s="22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="20" t="s">
         <v>138</v>
       </c>
@@ -14917,8 +15046,11 @@
       <c r="G65" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="2:7">
+      <c r="H65" s="22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" s="20" t="s">
         <v>142</v>
       </c>
@@ -14937,8 +15069,9 @@
       <c r="G66" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="H66" s="22"/>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="20" t="s">
         <v>144</v>
       </c>
@@ -14957,8 +15090,9 @@
       <c r="G67" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="H67" s="22"/>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="20" t="s">
         <v>140</v>
       </c>
@@ -14977,8 +15111,9 @@
       <c r="G68" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="2:7">
+      <c r="H68" s="22"/>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="20" t="s">
         <v>146</v>
       </c>
@@ -14997,8 +15132,9 @@
       <c r="G69" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="2:7">
+      <c r="H69" s="22"/>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="20" t="s">
         <v>148</v>
       </c>
@@ -15017,8 +15153,9 @@
       <c r="G70" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="2:7">
+      <c r="H70" s="22"/>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="20" t="s">
         <v>150</v>
       </c>
@@ -15037,8 +15174,9 @@
       <c r="G71" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="2:7">
+      <c r="H71" s="22"/>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="20" t="s">
         <v>151</v>
       </c>
@@ -15057,8 +15195,9 @@
       <c r="G72" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="2:7">
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" s="20" t="s">
         <v>153</v>
       </c>
@@ -15077,8 +15216,11 @@
       <c r="G73" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="2:7">
+      <c r="H73" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="20" t="s">
         <v>156</v>
       </c>
@@ -15097,8 +15239,9 @@
       <c r="G74" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="2:7">
+      <c r="H74" s="22"/>
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75" s="20" t="s">
         <v>158</v>
       </c>
@@ -15117,8 +15260,11 @@
       <c r="G75" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="2:7">
+      <c r="H75" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" s="20" t="s">
         <v>159</v>
       </c>
@@ -15137,8 +15283,11 @@
       <c r="G76" s="20" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="77" spans="2:7">
+      <c r="H76" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" s="20" t="s">
         <v>160</v>
       </c>
@@ -15157,8 +15306,11 @@
       <c r="G77" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="2:7">
+      <c r="H77" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" s="20" t="s">
         <v>162</v>
       </c>
@@ -15177,8 +15329,11 @@
       <c r="G78" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="2:7">
+      <c r="H78" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" s="20" t="s">
         <v>164</v>
       </c>
@@ -15197,8 +15352,11 @@
       <c r="G79" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="2:7">
+      <c r="H79" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80" s="20" t="s">
         <v>165</v>
       </c>
@@ -15217,8 +15375,9 @@
       <c r="G80" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="H80" s="22"/>
+    </row>
+    <row r="81" spans="2:8">
       <c r="B81" s="20" t="s">
         <v>167</v>
       </c>
@@ -15237,8 +15396,9 @@
       <c r="G81" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="H81" s="22"/>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" s="20" t="s">
         <v>169</v>
       </c>
@@ -15257,8 +15417,11 @@
       <c r="G82" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="83" spans="2:7">
+      <c r="H82" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
       <c r="B83" s="20" t="s">
         <v>171</v>
       </c>
@@ -15277,8 +15440,9 @@
       <c r="G83" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:7">
+      <c r="H83" s="22"/>
+    </row>
+    <row r="84" spans="2:8">
       <c r="B84" s="20" t="s">
         <v>172</v>
       </c>
@@ -15297,8 +15461,9 @@
       <c r="G84" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="2:7">
+      <c r="H84" s="22"/>
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" s="20" t="s">
         <v>174</v>
       </c>
@@ -15317,8 +15482,11 @@
       <c r="G85" s="20" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="H85" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" s="20" t="s">
         <v>176</v>
       </c>
@@ -15337,8 +15505,11 @@
       <c r="G86" s="20" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="87" spans="2:7">
+      <c r="H86" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="20" t="s">
         <v>387</v>
       </c>
@@ -15357,8 +15528,11 @@
       <c r="G87" s="20" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="88" spans="2:7">
+      <c r="H87" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88" s="20" t="s">
         <v>180</v>
       </c>
@@ -15377,8 +15551,11 @@
       <c r="G88" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="2:7">
+      <c r="H88" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89" s="20" t="s">
         <v>182</v>
       </c>
@@ -15397,8 +15574,11 @@
       <c r="G89" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="90" spans="2:7">
+      <c r="H89" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90" s="20" t="s">
         <v>178</v>
       </c>
@@ -15417,8 +15597,9 @@
       <c r="G90" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="2:7">
+      <c r="H90" s="22"/>
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" s="20" t="s">
         <v>184</v>
       </c>
@@ -15437,8 +15618,11 @@
       <c r="G91" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="92" spans="2:7">
+      <c r="H91" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
       <c r="B92" s="20" t="s">
         <v>388</v>
       </c>
@@ -15457,8 +15641,9 @@
       <c r="G92" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="2:7">
+      <c r="H92" s="22"/>
+    </row>
+    <row r="93" spans="2:8">
       <c r="B93" s="20" t="s">
         <v>187</v>
       </c>
@@ -15477,8 +15662,9 @@
       <c r="G93" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="94" spans="2:7">
+      <c r="H93" s="22"/>
+    </row>
+    <row r="94" spans="2:8">
       <c r="B94" s="20" t="s">
         <v>189</v>
       </c>
@@ -15497,8 +15683,11 @@
       <c r="G94" s="25" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="95" spans="2:7">
+      <c r="H94" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
       <c r="B95" s="20" t="s">
         <v>190</v>
       </c>
@@ -15517,8 +15706,11 @@
       <c r="G95" s="20" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="96" spans="2:7">
+      <c r="H95" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
       <c r="B96" s="20" t="s">
         <v>192</v>
       </c>
@@ -15537,8 +15729,9 @@
       <c r="G96" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="97" spans="2:7">
+      <c r="H96" s="22"/>
+    </row>
+    <row r="97" spans="2:8">
       <c r="B97" s="20" t="s">
         <v>193</v>
       </c>
@@ -15557,8 +15750,11 @@
       <c r="G97" s="20" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="98" spans="2:7">
+      <c r="H97" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
       <c r="B98" s="20" t="s">
         <v>195</v>
       </c>
@@ -15577,8 +15773,11 @@
       <c r="G98" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="99" spans="2:7">
+      <c r="H98" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
       <c r="B99" s="20" t="s">
         <v>198</v>
       </c>
@@ -15597,8 +15796,11 @@
       <c r="G99" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="100" spans="2:7">
+      <c r="H99" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
       <c r="B100" s="20" t="s">
         <v>201</v>
       </c>
@@ -15617,8 +15819,11 @@
       <c r="G100" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="101" spans="2:7">
+      <c r="H100" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
       <c r="B101" s="20" t="s">
         <v>202</v>
       </c>
@@ -15637,8 +15842,11 @@
       <c r="G101" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="102" spans="2:7">
+      <c r="H101" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
       <c r="B102" s="20" t="s">
         <v>205</v>
       </c>
@@ -15657,8 +15865,11 @@
       <c r="G102" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="103" spans="2:7">
+      <c r="H102" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
       <c r="B103" s="20" t="s">
         <v>207</v>
       </c>
@@ -15677,8 +15888,11 @@
       <c r="G103" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="104" spans="2:7">
+      <c r="H103" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
       <c r="B104" s="20" t="s">
         <v>210</v>
       </c>
@@ -15697,8 +15911,11 @@
       <c r="G104" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="105" spans="2:7">
+      <c r="H104" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
       <c r="B105" s="20" t="s">
         <v>212</v>
       </c>
@@ -15717,8 +15934,11 @@
       <c r="G105" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="2:7">
+      <c r="H105" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
       <c r="B106" s="20" t="s">
         <v>215</v>
       </c>
@@ -15737,8 +15957,11 @@
       <c r="G106" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="107" spans="2:7">
+      <c r="H106" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
       <c r="B107" s="20" t="s">
         <v>217</v>
       </c>
@@ -15757,8 +15980,11 @@
       <c r="G107" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="108" spans="2:7">
+      <c r="H107" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
       <c r="B108" s="20" t="s">
         <v>219</v>
       </c>
@@ -15777,8 +16003,9 @@
       <c r="G108" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="2:7">
+      <c r="H108" s="22"/>
+    </row>
+    <row r="109" spans="2:8">
       <c r="B109" s="20" t="s">
         <v>221</v>
       </c>
@@ -15797,8 +16024,11 @@
       <c r="G109" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="110" spans="2:7">
+      <c r="H109" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
       <c r="B110" s="20" t="s">
         <v>223</v>
       </c>
@@ -15817,8 +16047,11 @@
       <c r="G110" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="2:7">
+      <c r="H110" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
       <c r="B111" s="20" t="s">
         <v>225</v>
       </c>
@@ -15837,8 +16070,9 @@
       <c r="G111" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="2:7">
+      <c r="H111" s="22"/>
+    </row>
+    <row r="112" spans="2:8">
       <c r="B112" s="20" t="s">
         <v>227</v>
       </c>
@@ -15857,8 +16091,9 @@
       <c r="G112" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="2:7">
+      <c r="H112" s="22"/>
+    </row>
+    <row r="113" spans="2:8">
       <c r="B113" s="20" t="s">
         <v>228</v>
       </c>
@@ -15877,8 +16112,11 @@
       <c r="G113" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="114" spans="2:7">
+      <c r="H113" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
       <c r="B114" s="20" t="s">
         <v>230</v>
       </c>
@@ -15897,8 +16135,11 @@
       <c r="G114" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="115" spans="2:7">
+      <c r="H114" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
       <c r="B115" s="20" t="s">
         <v>232</v>
       </c>
@@ -15917,8 +16158,9 @@
       <c r="G115" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="2:7">
+      <c r="H115" s="22"/>
+    </row>
+    <row r="116" spans="2:8">
       <c r="B116" s="20" t="s">
         <v>234</v>
       </c>
@@ -15937,8 +16179,9 @@
       <c r="G116" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="2:7">
+      <c r="H116" s="22"/>
+    </row>
+    <row r="117" spans="2:8">
       <c r="B117" s="20" t="s">
         <v>235</v>
       </c>
@@ -15957,8 +16200,11 @@
       <c r="G117" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="118" spans="2:7">
+      <c r="H117" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
       <c r="B118" s="20" t="s">
         <v>236</v>
       </c>
@@ -15977,8 +16223,9 @@
       <c r="G118" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="119" spans="2:7">
+      <c r="H118" s="22"/>
+    </row>
+    <row r="119" spans="2:8">
       <c r="B119" s="20" t="s">
         <v>238</v>
       </c>
@@ -15997,8 +16244,9 @@
       <c r="G119" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="2:7">
+      <c r="H119" s="22"/>
+    </row>
+    <row r="120" spans="2:8">
       <c r="B120" s="20" t="s">
         <v>240</v>
       </c>
@@ -16017,8 +16265,9 @@
       <c r="G120" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="2:7">
+      <c r="H120" s="22"/>
+    </row>
+    <row r="121" spans="2:8">
       <c r="B121" s="20" t="s">
         <v>242</v>
       </c>
@@ -16037,8 +16286,11 @@
       <c r="G121" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="122" spans="2:7">
+      <c r="H121" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
       <c r="B122" s="20" t="s">
         <v>389</v>
       </c>
@@ -16057,8 +16309,9 @@
       <c r="G122" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:7">
+      <c r="H122" s="22"/>
+    </row>
+    <row r="123" spans="2:8">
       <c r="B123" s="20" t="s">
         <v>390</v>
       </c>
@@ -16077,8 +16330,11 @@
       <c r="G123" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="124" spans="2:7">
+      <c r="H123" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
       <c r="B124" s="20" t="s">
         <v>244</v>
       </c>
@@ -16097,8 +16353,9 @@
       <c r="G124" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="2:7">
+      <c r="H124" s="22"/>
+    </row>
+    <row r="125" spans="2:8">
       <c r="B125" s="20" t="s">
         <v>246</v>
       </c>
@@ -16117,8 +16374,11 @@
       <c r="G125" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="126" spans="2:7">
+      <c r="H125" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
       <c r="B126" s="20" t="s">
         <v>248</v>
       </c>
@@ -16137,8 +16397,11 @@
       <c r="G126" s="20" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="127" spans="2:7">
+      <c r="H126" s="22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
       <c r="B127" s="20" t="s">
         <v>250</v>
       </c>
@@ -16157,8 +16420,11 @@
       <c r="G127" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="128" spans="2:7">
+      <c r="H127" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
       <c r="B128" s="20" t="s">
         <v>252</v>
       </c>
@@ -16177,8 +16443,11 @@
       <c r="G128" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="129" spans="2:7">
+      <c r="H128" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
       <c r="B129" s="20" t="s">
         <v>254</v>
       </c>
@@ -16197,8 +16466,11 @@
       <c r="G129" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="130" spans="2:7">
+      <c r="H129" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
       <c r="B130" s="20" t="s">
         <v>255</v>
       </c>
@@ -16217,8 +16489,11 @@
       <c r="G130" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="131" spans="2:7">
+      <c r="H130" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
       <c r="B131" s="20" t="s">
         <v>391</v>
       </c>
@@ -16237,8 +16512,11 @@
       <c r="G131" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="132" spans="2:7">
+      <c r="H131" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
       <c r="B132" s="20" t="s">
         <v>392</v>
       </c>
@@ -16257,8 +16535,11 @@
       <c r="G132" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="133" spans="2:7">
+      <c r="H132" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
       <c r="B133" s="20" t="s">
         <v>257</v>
       </c>
@@ -16277,8 +16558,11 @@
       <c r="G133" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="134" spans="2:7">
+      <c r="H133" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
       <c r="B134" s="20" t="s">
         <v>393</v>
       </c>
@@ -16297,8 +16581,11 @@
       <c r="G134" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="135" spans="2:7">
+      <c r="H134" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
       <c r="B135" s="20" t="s">
         <v>394</v>
       </c>
@@ -16317,8 +16604,11 @@
       <c r="G135" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="136" spans="2:7">
+      <c r="H135" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
       <c r="B136" s="20" t="s">
         <v>395</v>
       </c>
@@ -16337,8 +16627,11 @@
       <c r="G136" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="137" spans="2:7">
+      <c r="H136" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
       <c r="B137" s="20" t="s">
         <v>396</v>
       </c>
@@ -16357,8 +16650,11 @@
       <c r="G137" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="138" spans="2:7">
+      <c r="H137" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
       <c r="B138" s="20" t="s">
         <v>397</v>
       </c>
@@ -16377,8 +16673,11 @@
       <c r="G138" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="139" spans="2:7">
+      <c r="H138" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
       <c r="B139" s="20" t="s">
         <v>398</v>
       </c>
@@ -16397,8 +16696,11 @@
       <c r="G139" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="140" spans="2:7">
+      <c r="H139" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
       <c r="B140" s="20" t="s">
         <v>258</v>
       </c>
@@ -16417,8 +16719,9 @@
       <c r="G140" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="2:7">
+      <c r="H140" s="22"/>
+    </row>
+    <row r="141" spans="2:8">
       <c r="B141" s="20" t="s">
         <v>260</v>
       </c>
@@ -16437,8 +16740,9 @@
       <c r="G141" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="2:7">
+      <c r="H141" s="22"/>
+    </row>
+    <row r="142" spans="2:8">
       <c r="B142" s="20" t="s">
         <v>262</v>
       </c>
@@ -16457,8 +16761,9 @@
       <c r="G142" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="2:7">
+      <c r="H142" s="22"/>
+    </row>
+    <row r="143" spans="2:8">
       <c r="B143" s="20" t="s">
         <v>263</v>
       </c>
@@ -16477,8 +16782,9 @@
       <c r="G143" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="2:7">
+      <c r="H143" s="22"/>
+    </row>
+    <row r="144" spans="2:8">
       <c r="B144" s="20" t="s">
         <v>265</v>
       </c>
@@ -16497,8 +16803,9 @@
       <c r="G144" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="2:7">
+      <c r="H144" s="22"/>
+    </row>
+    <row r="145" spans="2:8">
       <c r="B145" s="20" t="s">
         <v>267</v>
       </c>
@@ -16517,8 +16824,11 @@
       <c r="G145" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="146" spans="2:7">
+      <c r="H145" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
       <c r="B146" s="20" t="s">
         <v>269</v>
       </c>
@@ -16537,8 +16847,11 @@
       <c r="G146" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="147" spans="2:7">
+      <c r="H146" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
       <c r="B147" s="20" t="s">
         <v>271</v>
       </c>
@@ -16557,8 +16870,11 @@
       <c r="G147" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="148" spans="2:7">
+      <c r="H147" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
       <c r="B148" s="20" t="s">
         <v>273</v>
       </c>
@@ -16577,8 +16893,11 @@
       <c r="G148" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="149" spans="2:7">
+      <c r="H148" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
       <c r="B149" s="20" t="s">
         <v>275</v>
       </c>
@@ -16597,8 +16916,11 @@
       <c r="G149" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="150" spans="2:7">
+      <c r="H149" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
       <c r="B150" s="20" t="s">
         <v>277</v>
       </c>
@@ -16617,8 +16939,11 @@
       <c r="G150" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="151" spans="2:7">
+      <c r="H150" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
       <c r="B151" s="20" t="s">
         <v>279</v>
       </c>
@@ -16637,8 +16962,11 @@
       <c r="G151" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="152" spans="2:7">
+      <c r="H151" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
       <c r="B152" s="20" t="s">
         <v>281</v>
       </c>
@@ -16657,8 +16985,11 @@
       <c r="G152" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="153" spans="2:7">
+      <c r="H152" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
       <c r="B153" s="20" t="s">
         <v>284</v>
       </c>
@@ -16677,8 +17008,9 @@
       <c r="G153" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="154" spans="2:7">
+      <c r="H153" s="22"/>
+    </row>
+    <row r="154" spans="2:8">
       <c r="B154" s="20" t="s">
         <v>286</v>
       </c>
@@ -16697,8 +17029,9 @@
       <c r="G154" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="2:7">
+      <c r="H154" s="22"/>
+    </row>
+    <row r="155" spans="2:8">
       <c r="B155" s="20" t="s">
         <v>288</v>
       </c>
@@ -16717,8 +17050,11 @@
       <c r="G155" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="156" spans="2:7">
+      <c r="H155" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
       <c r="B156" s="20" t="s">
         <v>290</v>
       </c>
@@ -16737,8 +17073,11 @@
       <c r="G156" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="2:7">
+      <c r="H156" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
       <c r="B157" s="20" t="s">
         <v>293</v>
       </c>
@@ -16757,8 +17096,9 @@
       <c r="G157" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="2:7">
+      <c r="H157" s="22"/>
+    </row>
+    <row r="158" spans="2:8">
       <c r="B158" s="20" t="s">
         <v>399</v>
       </c>
@@ -16777,8 +17117,11 @@
       <c r="G158" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="159" spans="2:7">
+      <c r="H158" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
       <c r="B159" s="20" t="s">
         <v>295</v>
       </c>
@@ -16797,8 +17140,11 @@
       <c r="G159" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="2:7">
+      <c r="H159" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
       <c r="B160" s="20" t="s">
         <v>297</v>
       </c>
@@ -16817,8 +17163,9 @@
       <c r="G160" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="2:7">
+      <c r="H160" s="22"/>
+    </row>
+    <row r="161" spans="2:8">
       <c r="B161" s="20" t="s">
         <v>299</v>
       </c>
@@ -16837,8 +17184,11 @@
       <c r="G161" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="162" spans="2:7">
+      <c r="H161" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
       <c r="B162" s="20" t="s">
         <v>301</v>
       </c>
@@ -16857,8 +17207,11 @@
       <c r="G162" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="163" spans="2:7">
+      <c r="H162" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
       <c r="B163" s="20" t="s">
         <v>303</v>
       </c>
@@ -16877,8 +17230,9 @@
       <c r="G163" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="164" spans="2:7">
+      <c r="H163" s="22"/>
+    </row>
+    <row r="164" spans="2:8">
       <c r="B164" s="20" t="s">
         <v>305</v>
       </c>
@@ -16897,8 +17251,11 @@
       <c r="G164" s="20" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="165" spans="2:7">
+      <c r="H164" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
       <c r="B165" s="20" t="s">
         <v>307</v>
       </c>
@@ -16917,8 +17274,11 @@
       <c r="G165" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="166" spans="2:7">
+      <c r="H165" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8">
       <c r="B166" s="20" t="s">
         <v>400</v>
       </c>
@@ -16937,8 +17297,11 @@
       <c r="G166" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="167" spans="2:7">
+      <c r="H166" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
       <c r="B167" s="20" t="s">
         <v>309</v>
       </c>
@@ -16957,8 +17320,11 @@
       <c r="G167" s="20" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="168" spans="2:7">
+      <c r="H167" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
       <c r="B168" s="20" t="s">
         <v>311</v>
       </c>
@@ -16977,8 +17343,11 @@
       <c r="G168" s="20" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="169" spans="2:7">
+      <c r="H168" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
       <c r="B169" s="20" t="s">
         <v>313</v>
       </c>
@@ -16997,8 +17366,11 @@
       <c r="G169" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="170" spans="2:7">
+      <c r="H169" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
       <c r="B170" s="20" t="s">
         <v>314</v>
       </c>
@@ -17017,8 +17389,11 @@
       <c r="G170" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="171" spans="2:7">
+      <c r="H170" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
       <c r="B171" s="20" t="s">
         <v>315</v>
       </c>
@@ -17037,8 +17412,11 @@
       <c r="G171" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="172" spans="2:7">
+      <c r="H171" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
       <c r="B172" s="20" t="s">
         <v>401</v>
       </c>
@@ -17057,8 +17435,11 @@
       <c r="G172" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="173" spans="2:7">
+      <c r="H172" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8">
       <c r="B173" s="20" t="s">
         <v>317</v>
       </c>
@@ -17077,8 +17458,9 @@
       <c r="G173" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="174" spans="2:7">
+      <c r="H173" s="22"/>
+    </row>
+    <row r="174" spans="2:8">
       <c r="B174" s="20" t="s">
         <v>320</v>
       </c>
@@ -17097,8 +17479,9 @@
       <c r="G174" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="175" spans="2:7">
+      <c r="H174" s="22"/>
+    </row>
+    <row r="175" spans="2:8">
       <c r="B175" s="20" t="s">
         <v>322</v>
       </c>
@@ -17117,8 +17500,9 @@
       <c r="G175" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="2:7">
+      <c r="H175" s="22"/>
+    </row>
+    <row r="176" spans="2:8">
       <c r="B176" s="20" t="s">
         <v>324</v>
       </c>
@@ -17137,8 +17521,11 @@
       <c r="G176" s="20" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="177" spans="2:7">
+      <c r="H176" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8">
       <c r="B177" s="20" t="s">
         <v>326</v>
       </c>
@@ -17157,8 +17544,11 @@
       <c r="G177" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="178" spans="2:7">
+      <c r="H177" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8">
       <c r="B178" s="29" t="s">
         <v>328</v>
       </c>
@@ -17177,8 +17567,11 @@
       <c r="G178" s="29" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="179" spans="2:7">
+      <c r="H178" s="33" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8">
       <c r="B179" s="38" t="s">
         <v>330</v>
       </c>
@@ -17197,8 +17590,11 @@
       <c r="G179" s="38" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="180" spans="2:7">
+      <c r="H179" s="42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8">
       <c r="B180" s="20" t="s">
         <v>332</v>
       </c>
@@ -17217,8 +17613,11 @@
       <c r="G180" s="20" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="2:7">
+      <c r="H180" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8">
       <c r="B181" s="20" t="s">
         <v>402</v>
       </c>
@@ -17237,8 +17636,11 @@
       <c r="G181" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="182" spans="2:7">
+      <c r="H181" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8">
       <c r="B182" s="20" t="s">
         <v>403</v>
       </c>
@@ -17257,8 +17659,11 @@
       <c r="G182" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="183" spans="2:7">
+      <c r="H182" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8">
       <c r="B183" s="20" t="s">
         <v>404</v>
       </c>
@@ -17277,8 +17682,11 @@
       <c r="G183" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="184" spans="2:7">
+      <c r="H183" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8">
       <c r="B184" s="20" t="s">
         <v>333</v>
       </c>
@@ -17297,8 +17705,11 @@
       <c r="G184" s="23" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="185" spans="2:7">
+      <c r="H184" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8">
       <c r="B185" s="20" t="s">
         <v>335</v>
       </c>
@@ -17317,8 +17728,11 @@
       <c r="G185" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="186" spans="2:7">
+      <c r="H185" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8">
       <c r="B186" s="20" t="s">
         <v>337</v>
       </c>
@@ -17337,8 +17751,11 @@
       <c r="G186" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="2:7">
+      <c r="H186" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8">
       <c r="B187" s="20" t="s">
         <v>339</v>
       </c>
@@ -17357,8 +17774,9 @@
       <c r="G187" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:7">
+      <c r="H187" s="22"/>
+    </row>
+    <row r="188" spans="2:8">
       <c r="B188" s="20" t="s">
         <v>341</v>
       </c>
@@ -17377,8 +17795,9 @@
       <c r="G188" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="2:7">
+      <c r="H188" s="22"/>
+    </row>
+    <row r="189" spans="2:8">
       <c r="B189" s="20" t="s">
         <v>343</v>
       </c>
@@ -17397,8 +17816,11 @@
       <c r="G189" s="20" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="190" spans="2:7">
+      <c r="H189" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
       <c r="B190" s="20" t="s">
         <v>345</v>
       </c>
@@ -17417,8 +17839,11 @@
       <c r="G190" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="191" spans="2:7">
+      <c r="H190" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8">
       <c r="B191" s="20" t="s">
         <v>347</v>
       </c>
@@ -17437,8 +17862,11 @@
       <c r="G191" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="192" spans="2:7">
+      <c r="H191" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8">
       <c r="B192" s="20" t="s">
         <v>348</v>
       </c>
@@ -17457,8 +17885,9 @@
       <c r="G192" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="2:7">
+      <c r="H192" s="22"/>
+    </row>
+    <row r="193" spans="2:8">
       <c r="B193" s="20" t="s">
         <v>405</v>
       </c>
@@ -17477,8 +17906,11 @@
       <c r="G193" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="194" spans="2:7">
+      <c r="H193" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8">
       <c r="B194" s="20" t="s">
         <v>406</v>
       </c>
@@ -17497,8 +17929,11 @@
       <c r="G194" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="195" spans="2:7">
+      <c r="H194" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8">
       <c r="B195" s="20" t="s">
         <v>350</v>
       </c>
@@ -17517,8 +17952,11 @@
       <c r="G195" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="196" spans="2:7">
+      <c r="H195" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8">
       <c r="B196" s="20" t="s">
         <v>352</v>
       </c>
@@ -17537,8 +17975,11 @@
       <c r="G196" s="20" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="197" spans="2:7">
+      <c r="H196" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8">
       <c r="B197" s="20" t="s">
         <v>407</v>
       </c>
@@ -17557,8 +17998,11 @@
       <c r="G197" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="198" spans="2:7">
+      <c r="H197" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8">
       <c r="B198" s="20" t="s">
         <v>408</v>
       </c>
@@ -17577,8 +18021,11 @@
       <c r="G198" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="199" spans="2:7">
+      <c r="H198" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8">
       <c r="B199" s="20" t="s">
         <v>409</v>
       </c>
@@ -17597,8 +18044,11 @@
       <c r="G199" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="200" spans="2:7">
+      <c r="H199" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8">
       <c r="B200" s="20" t="s">
         <v>410</v>
       </c>
@@ -17617,8 +18067,11 @@
       <c r="G200" s="20" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="201" spans="2:7">
+      <c r="H200" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8">
       <c r="B201" s="20" t="s">
         <v>411</v>
       </c>
@@ -17637,8 +18090,11 @@
       <c r="G201" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="202" spans="2:7">
+      <c r="H201" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8">
       <c r="B202" s="20" t="s">
         <v>355</v>
       </c>
@@ -17657,8 +18113,9 @@
       <c r="G202" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="2:7">
+      <c r="H202" s="22"/>
+    </row>
+    <row r="203" spans="2:8">
       <c r="B203" s="20" t="s">
         <v>358</v>
       </c>
@@ -17677,8 +18134,11 @@
       <c r="G203" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="204" spans="2:7">
+      <c r="H203" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8">
       <c r="B204" s="20" t="s">
         <v>360</v>
       </c>
@@ -17697,8 +18157,11 @@
       <c r="G204" s="20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="205" spans="2:7">
+      <c r="H204" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8">
       <c r="B205" s="20" t="s">
         <v>361</v>
       </c>
@@ -17717,8 +18180,9 @@
       <c r="G205" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="206" spans="2:7">
+      <c r="H205" s="22"/>
+    </row>
+    <row r="206" spans="2:8">
       <c r="B206" s="47" t="s">
         <v>512</v>
       </c>
@@ -17737,6 +18201,7 @@
       <c r="G206" s="46">
         <v>15</v>
       </c>
+      <c r="H206" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
